--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H2">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>58.84228228948399</v>
+        <v>11.56237993026611</v>
       </c>
       <c r="R2">
-        <v>529.580540605356</v>
+        <v>104.061419372395</v>
       </c>
       <c r="S2">
-        <v>0.04859123528174605</v>
+        <v>0.008387338285248477</v>
       </c>
       <c r="T2">
-        <v>0.04859123528174605</v>
+        <v>0.008387338285248477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H3">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>57.40743030613199</v>
+        <v>15.552310338413</v>
       </c>
       <c r="R3">
-        <v>516.666872755188</v>
+        <v>139.970793045717</v>
       </c>
       <c r="S3">
-        <v>0.04740635210582619</v>
+        <v>0.01128162962228788</v>
       </c>
       <c r="T3">
-        <v>0.04740635210582619</v>
+        <v>0.01128162962228788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H4">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>39.56613881878399</v>
+        <v>8.811266391033223</v>
       </c>
       <c r="R4">
-        <v>356.0952493690559</v>
+        <v>79.30139751929902</v>
       </c>
       <c r="S4">
-        <v>0.03267323233785157</v>
+        <v>0.006391683406768594</v>
       </c>
       <c r="T4">
-        <v>0.03267323233785157</v>
+        <v>0.006391683406768594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.876939</v>
       </c>
       <c r="I5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>256.1453864586463</v>
+        <v>185.7879138183984</v>
       </c>
       <c r="R5">
-        <v>2305.308478127817</v>
+        <v>1672.091224365585</v>
       </c>
       <c r="S5">
-        <v>0.2115217196796294</v>
+        <v>0.1347703579975366</v>
       </c>
       <c r="T5">
-        <v>0.2115217196796293</v>
+        <v>0.1347703579975366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.876939</v>
       </c>
       <c r="I6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
         <v>249.899355518199</v>
@@ -818,10 +818,10 @@
         <v>2249.094199663791</v>
       </c>
       <c r="S6">
-        <v>0.2063638239081633</v>
+        <v>0.1812767306244771</v>
       </c>
       <c r="T6">
-        <v>0.2063638239081633</v>
+        <v>0.1812767306244771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.876939</v>
       </c>
       <c r="I7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>172.2347183706213</v>
+        <v>141.5821665402197</v>
       </c>
       <c r="R7">
-        <v>1550.112465335592</v>
+        <v>1274.239498861977</v>
       </c>
       <c r="S7">
-        <v>0.1422293187551601</v>
+        <v>0.102703555244952</v>
       </c>
       <c r="T7">
-        <v>0.1422293187551601</v>
+        <v>0.102703555244952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H8">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I8">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J8">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N8">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q8">
-        <v>142.3210078815053</v>
+        <v>246.3216540786489</v>
       </c>
       <c r="R8">
-        <v>1280.889070933548</v>
+        <v>2216.89488670784</v>
       </c>
       <c r="S8">
-        <v>0.1175269433888253</v>
+        <v>0.1786814697492849</v>
       </c>
       <c r="T8">
-        <v>0.1175269433888252</v>
+        <v>0.1786814697492849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H9">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I9">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J9">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>119.145069</v>
       </c>
       <c r="O9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q9">
-        <v>138.850551391956</v>
+        <v>331.3219968904961</v>
       </c>
       <c r="R9">
-        <v>1249.654962527604</v>
+        <v>2981.897972014464</v>
       </c>
       <c r="S9">
-        <v>0.1146610829691166</v>
+        <v>0.2403406293535172</v>
       </c>
       <c r="T9">
-        <v>0.1146610829691166</v>
+        <v>0.2403406293535172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H10">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I10">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J10">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N10">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q10">
-        <v>95.69806838840533</v>
+        <v>187.7127135638898</v>
       </c>
       <c r="R10">
-        <v>861.282615495648</v>
+        <v>1689.414422075008</v>
       </c>
       <c r="S10">
-        <v>0.07902629157368135</v>
+        <v>0.136166605715927</v>
       </c>
       <c r="T10">
-        <v>0.07902629157368134</v>
+        <v>0.136166605715927</v>
       </c>
     </row>
   </sheetData>
